--- a/data/output/FV2504_FV2410/UTILMD/44001.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/44001.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4954" uniqueCount="416">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4975" uniqueCount="416">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1372,6 +1372,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U215" totalsRowShown="0">
+  <autoFilter ref="A1:U215"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1661,7 +1691,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12205,5 +12238,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/44001.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/44001.xlsx
@@ -2427,7 +2427,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2789,7 +2789,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -3137,7 +3137,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3445,7 +3445,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3645,7 +3645,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -4015,7 +4015,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4523,7 +4523,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4741,7 +4741,7 @@
         <v>386</v>
       </c>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4961,7 +4961,7 @@
         <v>387</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -5289,7 +5289,7 @@
         <v>388</v>
       </c>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -5509,7 +5509,7 @@
         <v>389</v>
       </c>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -5671,7 +5671,7 @@
         <v>390</v>
       </c>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -5833,7 +5833,7 @@
         <v>391</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -6235,7 +6235,7 @@
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -6385,7 +6385,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -6597,7 +6597,7 @@
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -6741,7 +6741,7 @@
         <v>394</v>
       </c>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -7003,7 +7003,7 @@
         <v>396</v>
       </c>
       <c r="L90" s="4"/>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N90" s="2" t="s">
@@ -7265,7 +7265,7 @@
         <v>398</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -7469,7 +7469,7 @@
         <v>399</v>
       </c>
       <c r="L99" s="4"/>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N99" s="2" t="s">
@@ -7791,7 +7791,7 @@
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -7989,7 +7989,7 @@
         <v>401</v>
       </c>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -8299,7 +8299,7 @@
       </c>
       <c r="K115" s="2"/>
       <c r="L115" s="4"/>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N115" s="2" t="s">
@@ -8445,7 +8445,7 @@
       </c>
       <c r="K118" s="2"/>
       <c r="L118" s="4"/>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N118" s="2" t="s">
@@ -8661,7 +8661,7 @@
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="4"/>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N122" s="2" t="s">
@@ -8879,7 +8879,7 @@
         <v>403</v>
       </c>
       <c r="L126" s="4"/>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N126" s="2" t="s">
@@ -9023,7 +9023,7 @@
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -9169,7 +9169,7 @@
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -9655,7 +9655,7 @@
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -10057,7 +10057,7 @@
         <v>407</v>
       </c>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -10201,7 +10201,7 @@
       </c>
       <c r="K152" s="2"/>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -10347,7 +10347,7 @@
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="4"/>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N155" s="2" t="s">
@@ -10503,7 +10503,7 @@
         <v>408</v>
       </c>
       <c r="L158" s="4"/>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N158" s="2" t="s">
@@ -10647,7 +10647,7 @@
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="4"/>
-      <c r="M161" s="2" t="s">
+      <c r="M161" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N161" s="2" t="s">
@@ -11115,7 +11115,7 @@
         <v>409</v>
       </c>
       <c r="L170" s="4"/>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N170" s="2" t="s">
@@ -11431,7 +11431,7 @@
         <v>410</v>
       </c>
       <c r="L176" s="4"/>
-      <c r="M176" s="2" t="s">
+      <c r="M176" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N176" s="2" t="s">
@@ -11593,7 +11593,7 @@
         <v>411</v>
       </c>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -11751,7 +11751,7 @@
         <v>412</v>
       </c>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -12283,7 +12283,7 @@
         <v>411</v>
       </c>
       <c r="L192" s="4"/>
-      <c r="M192" s="2" t="s">
+      <c r="M192" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N192" s="2" t="s">
@@ -12703,7 +12703,7 @@
         <v>415</v>
       </c>
       <c r="L200" s="4"/>
-      <c r="M200" s="2" t="s">
+      <c r="M200" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N200" s="2" t="s">
@@ -13237,7 +13237,7 @@
       </c>
       <c r="K210" s="2"/>
       <c r="L210" s="4"/>
-      <c r="M210" s="2" t="s">
+      <c r="M210" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N210" s="2" t="s">
@@ -13397,7 +13397,7 @@
       </c>
       <c r="K213" s="2"/>
       <c r="L213" s="4"/>
-      <c r="M213" s="2" t="s">
+      <c r="M213" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N213" s="2"/>
